--- a/api/v2/app/e-lkh/modules/Skp/Templates/document.xlsx
+++ b/api/v2/app/e-lkh/modules/Skp/Templates/document.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="DATA SKP" sheetId="1" r:id="rId1"/>
@@ -861,7 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1380,24 +1380,30 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1413,11 +1419,98 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1446,135 +1539,42 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="11" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1593,17 +1593,83 @@
     <xf numFmtId="15" fontId="11" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1614,80 +1680,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2146,8 +2149,8 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2156,7 +2159,7 @@
     <col min="2" max="2" width="4.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="1.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" style="281" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -2191,7 +2194,7 @@
       <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -2204,7 +2207,7 @@
       <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -2217,7 +2220,7 @@
       <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -2230,7 +2233,7 @@
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
@@ -2267,7 +2270,7 @@
       <c r="D10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
@@ -2280,7 +2283,7 @@
       <c r="D11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
@@ -2293,7 +2296,7 @@
       <c r="D12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
@@ -2306,7 +2309,7 @@
       <c r="D13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
@@ -2319,7 +2322,7 @@
       <c r="D14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -2343,7 +2346,7 @@
       <c r="D16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -2356,7 +2359,7 @@
       <c r="D17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -2369,7 +2372,7 @@
       <c r="D18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -2382,7 +2385,7 @@
       <c r="D19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -2395,7 +2398,7 @@
       <c r="D20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2513,32 +2516,32 @@
       <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="181" t="s">
+      <c r="A8" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="183"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="184"/>
     </row>
     <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="182"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="183"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="184"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
@@ -2601,32 +2604,32 @@
       <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="184" t="s">
+      <c r="A15" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="185"/>
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="186"/>
+      <c r="B15" s="187"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="188"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="184" t="s">
+      <c r="A16" s="186" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="185"/>
-      <c r="C16" s="185"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="186"/>
+      <c r="B16" s="187"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="188"/>
     </row>
     <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
@@ -2650,11 +2653,11 @@
       <c r="E18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="188"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="190"/>
     </row>
     <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
@@ -2666,11 +2669,11 @@
       <c r="E19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="178"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="180"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="179"/>
     </row>
     <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
@@ -2682,11 +2685,11 @@
       <c r="E20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="180"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="179"/>
     </row>
     <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
@@ -2698,11 +2701,11 @@
       <c r="E21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="189"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="189"/>
-      <c r="J21" s="190"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="181"/>
     </row>
     <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
@@ -2714,11 +2717,11 @@
       <c r="E22" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="180"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="179"/>
     </row>
     <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
@@ -2913,32 +2916,32 @@
       <c r="J38" s="21"/>
     </row>
     <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="181" t="s">
+      <c r="A39" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="182"/>
-      <c r="C39" s="182"/>
-      <c r="D39" s="182"/>
-      <c r="E39" s="182"/>
-      <c r="F39" s="182"/>
-      <c r="G39" s="182"/>
-      <c r="H39" s="182"/>
-      <c r="I39" s="182"/>
-      <c r="J39" s="183"/>
+      <c r="B39" s="183"/>
+      <c r="C39" s="183"/>
+      <c r="D39" s="183"/>
+      <c r="E39" s="183"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="184"/>
     </row>
     <row r="40" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="181" t="s">
+      <c r="A40" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="182"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="182"/>
-      <c r="F40" s="182"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="182"/>
-      <c r="I40" s="182"/>
-      <c r="J40" s="183"/>
+      <c r="B40" s="183"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="183"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="183"/>
+      <c r="J40" s="184"/>
     </row>
     <row r="41" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="23"/>
@@ -2979,17 +2982,17 @@
     <row r="44" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:J40"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3026,34 +3029,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="222" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -3074,22 +3077,22 @@
       <c r="A4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="192" t="s">
+      <c r="B4" s="223" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="193"/>
+      <c r="C4" s="224"/>
       <c r="D4" s="33"/>
       <c r="E4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="194" t="s">
+      <c r="F4" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="196"/>
+      <c r="G4" s="226"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="226"/>
+      <c r="J4" s="226"/>
+      <c r="K4" s="227"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35">
@@ -3098,19 +3101,19 @@
       <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="197"/>
-      <c r="D5" s="198"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="229"/>
       <c r="E5" s="37">
         <v>1</v>
       </c>
-      <c r="F5" s="199" t="s">
+      <c r="F5" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="198"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="198"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="230"/>
+      <c r="K5" s="229"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="38">
@@ -3119,19 +3122,19 @@
       <c r="B6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="200"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="211"/>
       <c r="E6" s="40">
         <v>2</v>
       </c>
-      <c r="F6" s="202" t="s">
+      <c r="F6" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="201"/>
-      <c r="H6" s="200"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="202"/>
-      <c r="K6" s="201"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="212"/>
+      <c r="J6" s="212"/>
+      <c r="K6" s="211"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="38">
@@ -3140,19 +3143,19 @@
       <c r="B7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="203"/>
-      <c r="D7" s="201"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="211"/>
       <c r="E7" s="40">
         <v>3</v>
       </c>
-      <c r="F7" s="202" t="s">
+      <c r="F7" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="201"/>
-      <c r="H7" s="203"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="202"/>
-      <c r="K7" s="201"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="210"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="211"/>
     </row>
     <row r="8" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38">
@@ -3161,19 +3164,19 @@
       <c r="B8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="201"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="211"/>
       <c r="E8" s="40">
         <v>4</v>
       </c>
-      <c r="F8" s="202" t="s">
+      <c r="F8" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="201"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="205"/>
-      <c r="J8" s="205"/>
-      <c r="K8" s="206"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="215"/>
     </row>
     <row r="9" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="41">
@@ -3182,66 +3185,66 @@
       <c r="B9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="207"/>
-      <c r="D9" s="208"/>
+      <c r="C9" s="216"/>
+      <c r="D9" s="217"/>
       <c r="E9" s="43">
         <v>5</v>
       </c>
-      <c r="F9" s="209" t="s">
+      <c r="F9" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="210"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="211"/>
-      <c r="K9" s="208"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="220"/>
+      <c r="J9" s="220"/>
+      <c r="K9" s="217"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="214" t="s">
+      <c r="A10" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="216" t="s">
+      <c r="B10" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="217"/>
+      <c r="C10" s="201"/>
       <c r="D10" s="44"/>
-      <c r="E10" s="220" t="s">
+      <c r="E10" s="204" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="221" t="s">
+      <c r="F10" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="222"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="222"/>
-      <c r="J10" s="222"/>
-      <c r="K10" s="223"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="206"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="206"/>
+      <c r="K10" s="207"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="215"/>
-      <c r="B11" s="218"/>
-      <c r="C11" s="219"/>
+      <c r="A11" s="199"/>
+      <c r="B11" s="202"/>
+      <c r="C11" s="203"/>
       <c r="D11" s="45"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="224" t="s">
+      <c r="E11" s="199"/>
+      <c r="F11" s="208" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="224"/>
+      <c r="G11" s="208"/>
       <c r="H11" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="224" t="s">
+      <c r="I11" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="225"/>
+      <c r="J11" s="209"/>
       <c r="K11" s="47" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="58"/>
-      <c r="B12" s="212"/>
-      <c r="C12" s="213"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="197"/>
       <c r="D12" s="65"/>
       <c r="E12" s="58"/>
       <c r="F12" s="59"/>
@@ -3253,8 +3256,8 @@
     </row>
     <row r="13" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
-      <c r="B13" s="228"/>
-      <c r="C13" s="229"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="192"/>
       <c r="D13" s="49"/>
       <c r="E13" s="48"/>
       <c r="F13" s="51"/>
@@ -3265,88 +3268,97 @@
       <c r="K13" s="62"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G15" s="227" t="s">
+      <c r="G15" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="227"/>
-      <c r="I15" s="227"/>
-      <c r="J15" s="227"/>
-      <c r="K15" s="227"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="194"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="227" t="s">
+      <c r="A16" s="194" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="227"/>
-      <c r="C16" s="227"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="194"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
       <c r="F16" s="55"/>
-      <c r="G16" s="227" t="s">
+      <c r="G16" s="194" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="227"/>
-      <c r="I16" s="227"/>
-      <c r="J16" s="227"/>
-      <c r="K16" s="227"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="230"/>
-      <c r="B20" s="230"/>
-      <c r="C20" s="230"/>
+      <c r="A20" s="193"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="193"/>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
       <c r="F20" s="57"/>
-      <c r="G20" s="230"/>
-      <c r="H20" s="230"/>
-      <c r="I20" s="230"/>
-      <c r="J20" s="230"/>
-      <c r="K20" s="230"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="193"/>
+      <c r="K20" s="193"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="227"/>
-      <c r="B21" s="227"/>
-      <c r="C21" s="227"/>
+      <c r="A21" s="194"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="194"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
-      <c r="G21" s="227"/>
-      <c r="H21" s="227"/>
-      <c r="I21" s="227"/>
-      <c r="J21" s="227"/>
-      <c r="K21" s="227"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="194"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="226" t="s">
+      <c r="A23" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="226"/>
-      <c r="C23" s="226"/>
-      <c r="D23" s="226"/>
-      <c r="E23" s="226"/>
+      <c r="B23" s="195"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="195"/>
       <c r="F23" s="53"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="226" t="s">
+      <c r="A24" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="226"/>
-      <c r="C24" s="226"/>
-      <c r="D24" s="226"/>
-      <c r="E24" s="226"/>
+      <c r="B24" s="195"/>
+      <c r="C24" s="195"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="195"/>
       <c r="F24" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:K9"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:C11"/>
@@ -3354,25 +3366,16 @@
     <mergeCell ref="F10:K10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="G21:K21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3415,67 +3418,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="240" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
-      <c r="Q1" s="231"/>
-      <c r="R1" s="231"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+      <c r="N1" s="240"/>
+      <c r="O1" s="240"/>
+      <c r="P1" s="240"/>
+      <c r="Q1" s="240"/>
+      <c r="R1" s="240"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="240" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="231"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
+      <c r="H2" s="240"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="240"/>
+      <c r="M2" s="240"/>
+      <c r="N2" s="240"/>
+      <c r="O2" s="240"/>
+      <c r="P2" s="240"/>
+      <c r="Q2" s="240"/>
+      <c r="R2" s="240"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="232"/>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
+      <c r="A3" s="233"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="233"/>
+      <c r="G3" s="233"/>
+      <c r="H3" s="233"/>
+      <c r="I3" s="233"/>
+      <c r="J3" s="233"/>
+      <c r="K3" s="233"/>
+      <c r="L3" s="233"/>
+      <c r="M3" s="233"/>
+      <c r="N3" s="233"/>
+      <c r="O3" s="233"/>
+      <c r="P3" s="233"/>
+      <c r="Q3" s="233"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
@@ -3509,7 +3512,7 @@
       <c r="F5" s="64"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="233" t="s">
+      <c r="A6" s="241" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="234" t="s">
@@ -3518,26 +3521,26 @@
       <c r="C6" s="234" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="233" t="s">
+      <c r="D6" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="233"/>
-      <c r="F6" s="233"/>
-      <c r="G6" s="233"/>
-      <c r="H6" s="233"/>
-      <c r="I6" s="233"/>
-      <c r="J6" s="233" t="s">
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241"/>
+      <c r="J6" s="241" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="233" t="s">
+      <c r="K6" s="241" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="233"/>
-      <c r="M6" s="233"/>
-      <c r="N6" s="233"/>
-      <c r="O6" s="233"/>
-      <c r="P6" s="233"/>
-      <c r="Q6" s="235" t="s">
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="231" t="s">
         <v>43</v>
       </c>
       <c r="R6" s="234" t="s">
@@ -3545,39 +3548,39 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="24" x14ac:dyDescent="0.2">
-      <c r="A7" s="233"/>
+      <c r="A7" s="241"/>
       <c r="B7" s="234"/>
       <c r="C7" s="234"/>
-      <c r="D7" s="236" t="s">
+      <c r="D7" s="242" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="236"/>
+      <c r="E7" s="242"/>
       <c r="F7" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="236" t="s">
+      <c r="G7" s="242" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="236"/>
+      <c r="H7" s="242"/>
       <c r="I7" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="233"/>
-      <c r="K7" s="236" t="s">
+      <c r="J7" s="241"/>
+      <c r="K7" s="242" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="236"/>
+      <c r="L7" s="242"/>
       <c r="M7" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="236" t="s">
+      <c r="N7" s="242" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="236"/>
+      <c r="O7" s="242"/>
       <c r="P7" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="235"/>
+      <c r="Q7" s="231"/>
       <c r="R7" s="234"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -3590,34 +3593,34 @@
       <c r="C8" s="70">
         <v>3</v>
       </c>
-      <c r="D8" s="241">
+      <c r="D8" s="239">
         <v>4</v>
       </c>
-      <c r="E8" s="241"/>
+      <c r="E8" s="239"/>
       <c r="F8" s="70">
         <v>5</v>
       </c>
-      <c r="G8" s="241">
+      <c r="G8" s="239">
         <v>6</v>
       </c>
-      <c r="H8" s="241"/>
+      <c r="H8" s="239"/>
       <c r="I8" s="70">
         <v>7</v>
       </c>
       <c r="J8" s="70">
         <v>8</v>
       </c>
-      <c r="K8" s="241">
+      <c r="K8" s="239">
         <v>9</v>
       </c>
-      <c r="L8" s="241"/>
+      <c r="L8" s="239"/>
       <c r="M8" s="70">
         <v>10</v>
       </c>
-      <c r="N8" s="241">
+      <c r="N8" s="239">
         <v>11</v>
       </c>
-      <c r="O8" s="241"/>
+      <c r="O8" s="239"/>
       <c r="P8" s="70">
         <v>12</v>
       </c>
@@ -3670,43 +3673,43 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="82"/>
-      <c r="B11" s="237" t="s">
+      <c r="B11" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="238"/>
-      <c r="D11" s="238"/>
-      <c r="E11" s="238"/>
-      <c r="F11" s="238"/>
-      <c r="G11" s="238"/>
-      <c r="H11" s="238"/>
-      <c r="I11" s="238"/>
-      <c r="J11" s="238"/>
-      <c r="K11" s="238"/>
-      <c r="L11" s="238"/>
-      <c r="M11" s="238"/>
-      <c r="N11" s="238"/>
-      <c r="O11" s="238"/>
-      <c r="P11" s="238"/>
-      <c r="Q11" s="238"/>
-      <c r="R11" s="239"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="237"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="237"/>
+      <c r="G11" s="237"/>
+      <c r="H11" s="237"/>
+      <c r="I11" s="237"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="237"/>
+      <c r="M11" s="237"/>
+      <c r="N11" s="237"/>
+      <c r="O11" s="237"/>
+      <c r="P11" s="237"/>
+      <c r="Q11" s="237"/>
+      <c r="R11" s="238"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="82"/>
       <c r="B12" s="83"/>
       <c r="C12" s="83"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="235"/>
-      <c r="H12" s="235"/>
-      <c r="I12" s="235"/>
+      <c r="D12" s="231"/>
+      <c r="E12" s="231"/>
+      <c r="F12" s="231"/>
+      <c r="G12" s="231"/>
+      <c r="H12" s="231"/>
+      <c r="I12" s="231"/>
       <c r="J12" s="84"/>
-      <c r="K12" s="240"/>
-      <c r="L12" s="240"/>
-      <c r="M12" s="240"/>
-      <c r="N12" s="240"/>
-      <c r="O12" s="240"/>
-      <c r="P12" s="240"/>
+      <c r="K12" s="232"/>
+      <c r="L12" s="232"/>
+      <c r="M12" s="232"/>
+      <c r="N12" s="232"/>
+      <c r="O12" s="232"/>
+      <c r="P12" s="232"/>
       <c r="Q12" s="82"/>
       <c r="R12" s="48"/>
     </row>
@@ -3714,19 +3717,19 @@
       <c r="A13" s="82"/>
       <c r="B13" s="83"/>
       <c r="C13" s="83"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="235"/>
-      <c r="H13" s="235"/>
-      <c r="I13" s="235"/>
+      <c r="D13" s="231"/>
+      <c r="E13" s="231"/>
+      <c r="F13" s="231"/>
+      <c r="G13" s="231"/>
+      <c r="H13" s="231"/>
+      <c r="I13" s="231"/>
       <c r="J13" s="84"/>
-      <c r="K13" s="240"/>
-      <c r="L13" s="240"/>
-      <c r="M13" s="240"/>
-      <c r="N13" s="240"/>
-      <c r="O13" s="240"/>
-      <c r="P13" s="240"/>
+      <c r="K13" s="232"/>
+      <c r="L13" s="232"/>
+      <c r="M13" s="232"/>
+      <c r="N13" s="232"/>
+      <c r="O13" s="232"/>
+      <c r="P13" s="232"/>
       <c r="Q13" s="82"/>
       <c r="R13" s="41"/>
     </row>
@@ -3793,57 +3796,43 @@
       <c r="R16" s="92"/>
     </row>
     <row r="18" spans="13:18" x14ac:dyDescent="0.2">
-      <c r="M18" s="232" t="s">
+      <c r="M18" s="233" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="232"/>
-      <c r="O18" s="232"/>
-      <c r="P18" s="232"/>
-      <c r="Q18" s="232"/>
-      <c r="R18" s="232"/>
+      <c r="N18" s="233"/>
+      <c r="O18" s="233"/>
+      <c r="P18" s="233"/>
+      <c r="Q18" s="233"/>
+      <c r="R18" s="233"/>
     </row>
     <row r="19" spans="13:18" x14ac:dyDescent="0.2">
-      <c r="M19" s="232" t="s">
+      <c r="M19" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="N19" s="232"/>
-      <c r="O19" s="232"/>
-      <c r="P19" s="232"/>
-      <c r="Q19" s="232"/>
-      <c r="R19" s="232"/>
+      <c r="N19" s="233"/>
+      <c r="O19" s="233"/>
+      <c r="P19" s="233"/>
+      <c r="Q19" s="233"/>
+      <c r="R19" s="233"/>
     </row>
     <row r="22" spans="13:18" x14ac:dyDescent="0.2">
-      <c r="M22" s="242"/>
-      <c r="N22" s="242"/>
-      <c r="O22" s="242"/>
-      <c r="P22" s="242"/>
-      <c r="Q22" s="242"/>
-      <c r="R22" s="242"/>
+      <c r="M22" s="235"/>
+      <c r="N22" s="235"/>
+      <c r="O22" s="235"/>
+      <c r="P22" s="235"/>
+      <c r="Q22" s="235"/>
+      <c r="R22" s="235"/>
     </row>
     <row r="23" spans="13:18" x14ac:dyDescent="0.2">
-      <c r="M23" s="232"/>
-      <c r="N23" s="232"/>
-      <c r="O23" s="232"/>
-      <c r="P23" s="232"/>
-      <c r="Q23" s="232"/>
-      <c r="R23" s="232"/>
+      <c r="M23" s="233"/>
+      <c r="N23" s="233"/>
+      <c r="O23" s="233"/>
+      <c r="P23" s="233"/>
+      <c r="Q23" s="233"/>
+      <c r="R23" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="A15:Q16"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:O8"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A3:Q3"/>
@@ -3859,6 +3848,20 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="N7:O7"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="A15:Q16"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="M22:R22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3893,18 +3896,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="240" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
@@ -4118,7 +4121,7 @@
   </sheetPr>
   <dimension ref="A2:J151"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A111" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A96" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B132" sqref="B132:F132"/>
     </sheetView>
   </sheetViews>
@@ -4150,32 +4153,32 @@
       <c r="J6" s="127"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="231" t="s">
+      <c r="A7" s="240" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="231"/>
-      <c r="C7" s="231"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="231"/>
+      <c r="B7" s="240"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="240"/>
+      <c r="J7" s="240"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="231" t="s">
+      <c r="A8" s="240" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="231"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="231"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="231"/>
+      <c r="B8" s="240"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="240"/>
+      <c r="F8" s="240"/>
+      <c r="G8" s="240"/>
+      <c r="H8" s="240"/>
+      <c r="I8" s="240"/>
+      <c r="J8" s="240"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J9" s="127"/>
@@ -4204,11 +4207,11 @@
       <c r="E11" s="128"/>
       <c r="F11" s="128"/>
       <c r="G11" s="128"/>
-      <c r="H11" s="249" t="s">
+      <c r="H11" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="249"/>
-      <c r="J11" s="249"/>
+      <c r="I11" s="260"/>
+      <c r="J11" s="260"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="128"/>
@@ -4226,337 +4229,337 @@
       <c r="A13" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="252"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="257"/>
     </row>
     <row r="14" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="131"/>
       <c r="B14" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="251" t="s">
+      <c r="C14" s="256" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="251"/>
-      <c r="E14" s="251"/>
-      <c r="F14" s="251"/>
-      <c r="G14" s="253"/>
-      <c r="H14" s="254"/>
-      <c r="I14" s="254"/>
-      <c r="J14" s="255"/>
+      <c r="D14" s="256"/>
+      <c r="E14" s="256"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="275"/>
+      <c r="H14" s="276"/>
+      <c r="I14" s="276"/>
+      <c r="J14" s="277"/>
     </row>
     <row r="15" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="131"/>
       <c r="B15" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="256" t="s">
+      <c r="C15" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="256"/>
-      <c r="E15" s="256"/>
-      <c r="F15" s="256"/>
-      <c r="G15" s="250"/>
-      <c r="H15" s="251"/>
-      <c r="I15" s="251"/>
-      <c r="J15" s="252"/>
+      <c r="D15" s="252"/>
+      <c r="E15" s="252"/>
+      <c r="F15" s="252"/>
+      <c r="G15" s="255"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="256"/>
+      <c r="J15" s="257"/>
     </row>
     <row r="16" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="131"/>
       <c r="B16" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="256" t="s">
+      <c r="C16" s="252" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="256"/>
-      <c r="E16" s="256"/>
-      <c r="F16" s="256"/>
-      <c r="G16" s="250"/>
-      <c r="H16" s="251"/>
-      <c r="I16" s="251"/>
-      <c r="J16" s="252"/>
+      <c r="D16" s="252"/>
+      <c r="E16" s="252"/>
+      <c r="F16" s="252"/>
+      <c r="G16" s="255"/>
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="257"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="131"/>
       <c r="B17" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="256" t="s">
+      <c r="C17" s="252" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="256"/>
-      <c r="E17" s="256"/>
-      <c r="F17" s="256"/>
-      <c r="G17" s="258"/>
-      <c r="H17" s="259"/>
-      <c r="I17" s="259"/>
-      <c r="J17" s="260"/>
+      <c r="D17" s="252"/>
+      <c r="E17" s="252"/>
+      <c r="F17" s="252"/>
+      <c r="G17" s="272"/>
+      <c r="H17" s="273"/>
+      <c r="I17" s="273"/>
+      <c r="J17" s="274"/>
     </row>
     <row r="18" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="134"/>
       <c r="B18" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="256" t="s">
+      <c r="C18" s="252" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="256"/>
-      <c r="E18" s="256"/>
-      <c r="F18" s="256"/>
-      <c r="G18" s="258"/>
-      <c r="H18" s="259"/>
-      <c r="I18" s="259"/>
-      <c r="J18" s="260"/>
+      <c r="D18" s="252"/>
+      <c r="E18" s="252"/>
+      <c r="F18" s="252"/>
+      <c r="G18" s="272"/>
+      <c r="H18" s="273"/>
+      <c r="I18" s="273"/>
+      <c r="J18" s="274"/>
     </row>
     <row r="19" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="250" t="s">
+      <c r="B19" s="255" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="251"/>
-      <c r="D19" s="251"/>
-      <c r="E19" s="251"/>
-      <c r="F19" s="251"/>
-      <c r="G19" s="251"/>
-      <c r="H19" s="251"/>
-      <c r="I19" s="251"/>
-      <c r="J19" s="252"/>
+      <c r="C19" s="256"/>
+      <c r="D19" s="256"/>
+      <c r="E19" s="256"/>
+      <c r="F19" s="256"/>
+      <c r="G19" s="256"/>
+      <c r="H19" s="256"/>
+      <c r="I19" s="256"/>
+      <c r="J19" s="257"/>
     </row>
     <row r="20" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="135"/>
       <c r="B20" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="251" t="s">
+      <c r="C20" s="256" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="251"/>
-      <c r="E20" s="251"/>
-      <c r="F20" s="251"/>
-      <c r="G20" s="253"/>
-      <c r="H20" s="254"/>
-      <c r="I20" s="254"/>
-      <c r="J20" s="255"/>
+      <c r="D20" s="256"/>
+      <c r="E20" s="256"/>
+      <c r="F20" s="256"/>
+      <c r="G20" s="275"/>
+      <c r="H20" s="276"/>
+      <c r="I20" s="276"/>
+      <c r="J20" s="277"/>
     </row>
     <row r="21" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="135"/>
       <c r="B21" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="256" t="s">
+      <c r="C21" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="256"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="256"/>
-      <c r="G21" s="257"/>
-      <c r="H21" s="251"/>
-      <c r="I21" s="251"/>
-      <c r="J21" s="252"/>
+      <c r="D21" s="252"/>
+      <c r="E21" s="252"/>
+      <c r="F21" s="252"/>
+      <c r="G21" s="278"/>
+      <c r="H21" s="256"/>
+      <c r="I21" s="256"/>
+      <c r="J21" s="257"/>
     </row>
     <row r="22" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="135"/>
       <c r="B22" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="256" t="s">
+      <c r="C22" s="252" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="256"/>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="258"/>
-      <c r="H22" s="259"/>
-      <c r="I22" s="259"/>
-      <c r="J22" s="260"/>
+      <c r="D22" s="252"/>
+      <c r="E22" s="252"/>
+      <c r="F22" s="252"/>
+      <c r="G22" s="272"/>
+      <c r="H22" s="273"/>
+      <c r="I22" s="273"/>
+      <c r="J22" s="274"/>
     </row>
     <row r="23" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="135"/>
       <c r="B23" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="256" t="s">
+      <c r="C23" s="252" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="256"/>
-      <c r="E23" s="256"/>
-      <c r="F23" s="256"/>
-      <c r="G23" s="258"/>
-      <c r="H23" s="259"/>
-      <c r="I23" s="259"/>
-      <c r="J23" s="260"/>
+      <c r="D23" s="252"/>
+      <c r="E23" s="252"/>
+      <c r="F23" s="252"/>
+      <c r="G23" s="272"/>
+      <c r="H23" s="273"/>
+      <c r="I23" s="273"/>
+      <c r="J23" s="274"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="136"/>
       <c r="B24" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="256" t="s">
+      <c r="C24" s="252" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="256"/>
-      <c r="E24" s="256"/>
-      <c r="F24" s="256"/>
-      <c r="G24" s="258"/>
-      <c r="H24" s="259"/>
-      <c r="I24" s="259"/>
-      <c r="J24" s="260"/>
+      <c r="D24" s="252"/>
+      <c r="E24" s="252"/>
+      <c r="F24" s="252"/>
+      <c r="G24" s="272"/>
+      <c r="H24" s="273"/>
+      <c r="I24" s="273"/>
+      <c r="J24" s="274"/>
     </row>
     <row r="25" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="250" t="s">
+      <c r="B25" s="255" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="251"/>
-      <c r="D25" s="251"/>
-      <c r="E25" s="251"/>
-      <c r="F25" s="251"/>
-      <c r="G25" s="251"/>
-      <c r="H25" s="251"/>
-      <c r="I25" s="251"/>
-      <c r="J25" s="252"/>
+      <c r="C25" s="256"/>
+      <c r="D25" s="256"/>
+      <c r="E25" s="256"/>
+      <c r="F25" s="256"/>
+      <c r="G25" s="256"/>
+      <c r="H25" s="256"/>
+      <c r="I25" s="256"/>
+      <c r="J25" s="257"/>
     </row>
     <row r="26" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="131"/>
       <c r="B26" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="251" t="s">
+      <c r="C26" s="256" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="251"/>
-      <c r="E26" s="251"/>
-      <c r="F26" s="251"/>
-      <c r="G26" s="253"/>
-      <c r="H26" s="254"/>
-      <c r="I26" s="254"/>
-      <c r="J26" s="255"/>
+      <c r="D26" s="256"/>
+      <c r="E26" s="256"/>
+      <c r="F26" s="256"/>
+      <c r="G26" s="275"/>
+      <c r="H26" s="276"/>
+      <c r="I26" s="276"/>
+      <c r="J26" s="277"/>
     </row>
     <row r="27" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="131"/>
       <c r="B27" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="256" t="s">
+      <c r="C27" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="256"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="256"/>
-      <c r="G27" s="257"/>
-      <c r="H27" s="261"/>
-      <c r="I27" s="261"/>
-      <c r="J27" s="262"/>
+      <c r="D27" s="252"/>
+      <c r="E27" s="252"/>
+      <c r="F27" s="252"/>
+      <c r="G27" s="278"/>
+      <c r="H27" s="279"/>
+      <c r="I27" s="279"/>
+      <c r="J27" s="280"/>
     </row>
     <row r="28" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="131"/>
       <c r="B28" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="256" t="s">
+      <c r="C28" s="252" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="256"/>
-      <c r="E28" s="256"/>
-      <c r="F28" s="256"/>
-      <c r="G28" s="250"/>
-      <c r="H28" s="251"/>
-      <c r="I28" s="251"/>
-      <c r="J28" s="252"/>
+      <c r="D28" s="252"/>
+      <c r="E28" s="252"/>
+      <c r="F28" s="252"/>
+      <c r="G28" s="255"/>
+      <c r="H28" s="256"/>
+      <c r="I28" s="256"/>
+      <c r="J28" s="257"/>
     </row>
     <row r="29" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="131"/>
       <c r="B29" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="256" t="s">
+      <c r="C29" s="252" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="256"/>
-      <c r="E29" s="256"/>
-      <c r="F29" s="256"/>
-      <c r="G29" s="258"/>
-      <c r="H29" s="259"/>
-      <c r="I29" s="259"/>
-      <c r="J29" s="260"/>
+      <c r="D29" s="252"/>
+      <c r="E29" s="252"/>
+      <c r="F29" s="252"/>
+      <c r="G29" s="272"/>
+      <c r="H29" s="273"/>
+      <c r="I29" s="273"/>
+      <c r="J29" s="274"/>
     </row>
     <row r="30" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="134"/>
       <c r="B30" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="256" t="s">
+      <c r="C30" s="252" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="256"/>
-      <c r="E30" s="256"/>
-      <c r="F30" s="256"/>
-      <c r="G30" s="258"/>
-      <c r="H30" s="259"/>
-      <c r="I30" s="259"/>
-      <c r="J30" s="260"/>
+      <c r="D30" s="252"/>
+      <c r="E30" s="252"/>
+      <c r="F30" s="252"/>
+      <c r="G30" s="272"/>
+      <c r="H30" s="273"/>
+      <c r="I30" s="273"/>
+      <c r="J30" s="274"/>
     </row>
     <row r="31" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="250" t="s">
+      <c r="B31" s="255" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="251"/>
-      <c r="D31" s="251"/>
-      <c r="E31" s="251"/>
-      <c r="F31" s="251"/>
-      <c r="G31" s="251"/>
-      <c r="H31" s="251"/>
-      <c r="I31" s="252"/>
+      <c r="C31" s="256"/>
+      <c r="D31" s="256"/>
+      <c r="E31" s="256"/>
+      <c r="F31" s="256"/>
+      <c r="G31" s="256"/>
+      <c r="H31" s="256"/>
+      <c r="I31" s="257"/>
       <c r="J31" s="137" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="138"/>
-      <c r="B32" s="268" t="s">
+      <c r="B32" s="253" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="280" t="s">
+      <c r="C32" s="251" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="280"/>
-      <c r="E32" s="280"/>
-      <c r="F32" s="280"/>
-      <c r="G32" s="280"/>
-      <c r="H32" s="278"/>
-      <c r="I32" s="276" t="s">
+      <c r="D32" s="251"/>
+      <c r="E32" s="251"/>
+      <c r="F32" s="251"/>
+      <c r="G32" s="251"/>
+      <c r="H32" s="249"/>
+      <c r="I32" s="265" t="s">
         <v>76</v>
       </c>
-      <c r="J32" s="274"/>
+      <c r="J32" s="263"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="138"/>
-      <c r="B33" s="271"/>
-      <c r="C33" s="256"/>
-      <c r="D33" s="256"/>
-      <c r="E33" s="256"/>
-      <c r="F33" s="256"/>
-      <c r="G33" s="256"/>
-      <c r="H33" s="279"/>
-      <c r="I33" s="277"/>
-      <c r="J33" s="275"/>
+      <c r="B33" s="254"/>
+      <c r="C33" s="252"/>
+      <c r="D33" s="252"/>
+      <c r="E33" s="252"/>
+      <c r="F33" s="252"/>
+      <c r="G33" s="252"/>
+      <c r="H33" s="250"/>
+      <c r="I33" s="266"/>
+      <c r="J33" s="264"/>
     </row>
     <row r="34" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="138"/>
@@ -4568,8 +4571,8 @@
       </c>
       <c r="D34" s="161"/>
       <c r="E34" s="133"/>
-      <c r="F34" s="251"/>
-      <c r="G34" s="252"/>
+      <c r="F34" s="256"/>
+      <c r="G34" s="257"/>
       <c r="H34" s="140"/>
       <c r="I34" s="136"/>
       <c r="J34" s="141"/>
@@ -4580,8 +4583,8 @@
       <c r="C35" s="162"/>
       <c r="D35" s="163"/>
       <c r="E35" s="133"/>
-      <c r="F35" s="251"/>
-      <c r="G35" s="252"/>
+      <c r="F35" s="256"/>
+      <c r="G35" s="257"/>
       <c r="H35" s="142"/>
       <c r="I35" s="137"/>
       <c r="J35" s="141"/>
@@ -4591,11 +4594,11 @@
       <c r="B36" s="138"/>
       <c r="C36" s="162"/>
       <c r="D36" s="163"/>
-      <c r="E36" s="250" t="s">
+      <c r="E36" s="255" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="251"/>
-      <c r="G36" s="252"/>
+      <c r="F36" s="256"/>
+      <c r="G36" s="257"/>
       <c r="H36" s="143"/>
       <c r="I36" s="137"/>
       <c r="J36" s="141"/>
@@ -4605,11 +4608,11 @@
       <c r="B37" s="138"/>
       <c r="C37" s="162"/>
       <c r="D37" s="163"/>
-      <c r="E37" s="250" t="s">
+      <c r="E37" s="255" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="251"/>
-      <c r="G37" s="252"/>
+      <c r="F37" s="256"/>
+      <c r="G37" s="257"/>
       <c r="H37" s="144"/>
       <c r="I37" s="130"/>
       <c r="J37" s="141"/>
@@ -4619,11 +4622,11 @@
       <c r="B38" s="145"/>
       <c r="C38" s="164"/>
       <c r="D38" s="165"/>
-      <c r="E38" s="250" t="s">
+      <c r="E38" s="255" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="251"/>
-      <c r="G38" s="251"/>
+      <c r="F38" s="256"/>
+      <c r="G38" s="256"/>
       <c r="H38" s="166"/>
       <c r="I38" s="146" t="s">
         <v>81</v>
@@ -4631,29 +4634,29 @@
       <c r="J38" s="142"/>
     </row>
     <row r="39" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="268" t="s">
+      <c r="A39" s="253" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="269"/>
-      <c r="C39" s="269"/>
-      <c r="D39" s="269"/>
-      <c r="E39" s="269"/>
-      <c r="F39" s="269"/>
-      <c r="G39" s="269"/>
-      <c r="H39" s="269"/>
-      <c r="I39" s="270"/>
+      <c r="B39" s="261"/>
+      <c r="C39" s="261"/>
+      <c r="D39" s="261"/>
+      <c r="E39" s="261"/>
+      <c r="F39" s="261"/>
+      <c r="G39" s="261"/>
+      <c r="H39" s="261"/>
+      <c r="I39" s="262"/>
       <c r="J39" s="144"/>
     </row>
     <row r="40" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="271"/>
-      <c r="B40" s="272"/>
-      <c r="C40" s="272"/>
-      <c r="D40" s="272"/>
-      <c r="E40" s="272"/>
-      <c r="F40" s="272"/>
-      <c r="G40" s="272"/>
-      <c r="H40" s="272"/>
-      <c r="I40" s="273"/>
+      <c r="A40" s="254"/>
+      <c r="B40" s="270"/>
+      <c r="C40" s="270"/>
+      <c r="D40" s="270"/>
+      <c r="E40" s="270"/>
+      <c r="F40" s="270"/>
+      <c r="G40" s="270"/>
+      <c r="H40" s="270"/>
+      <c r="I40" s="271"/>
       <c r="J40" s="147"/>
     </row>
     <row r="41" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4700,158 +4703,158 @@
     </row>
     <row r="44" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="138"/>
-      <c r="B44" s="249"/>
-      <c r="C44" s="249"/>
-      <c r="D44" s="249"/>
-      <c r="E44" s="249"/>
-      <c r="F44" s="249"/>
-      <c r="G44" s="249"/>
-      <c r="H44" s="249"/>
-      <c r="I44" s="249"/>
+      <c r="B44" s="260"/>
+      <c r="C44" s="260"/>
+      <c r="D44" s="260"/>
+      <c r="E44" s="260"/>
+      <c r="F44" s="260"/>
+      <c r="G44" s="260"/>
+      <c r="H44" s="260"/>
+      <c r="I44" s="260"/>
       <c r="J44" s="141"/>
     </row>
     <row r="45" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="138"/>
-      <c r="B45" s="249"/>
-      <c r="C45" s="249"/>
-      <c r="D45" s="249"/>
-      <c r="E45" s="249"/>
-      <c r="F45" s="249"/>
-      <c r="G45" s="249"/>
-      <c r="H45" s="249"/>
-      <c r="I45" s="249"/>
+      <c r="B45" s="260"/>
+      <c r="C45" s="260"/>
+      <c r="D45" s="260"/>
+      <c r="E45" s="260"/>
+      <c r="F45" s="260"/>
+      <c r="G45" s="260"/>
+      <c r="H45" s="260"/>
+      <c r="I45" s="260"/>
       <c r="J45" s="141"/>
     </row>
     <row r="46" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="138"/>
-      <c r="B46" s="249"/>
-      <c r="C46" s="249"/>
-      <c r="D46" s="249"/>
-      <c r="E46" s="249"/>
-      <c r="F46" s="249"/>
-      <c r="G46" s="249"/>
-      <c r="H46" s="249"/>
-      <c r="I46" s="249"/>
+      <c r="B46" s="260"/>
+      <c r="C46" s="260"/>
+      <c r="D46" s="260"/>
+      <c r="E46" s="260"/>
+      <c r="F46" s="260"/>
+      <c r="G46" s="260"/>
+      <c r="H46" s="260"/>
+      <c r="I46" s="260"/>
       <c r="J46" s="141"/>
     </row>
     <row r="47" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="138"/>
-      <c r="B47" s="249"/>
-      <c r="C47" s="249"/>
-      <c r="D47" s="249"/>
-      <c r="E47" s="249"/>
-      <c r="F47" s="249"/>
-      <c r="G47" s="249"/>
-      <c r="H47" s="249"/>
-      <c r="I47" s="249"/>
+      <c r="B47" s="260"/>
+      <c r="C47" s="260"/>
+      <c r="D47" s="260"/>
+      <c r="E47" s="260"/>
+      <c r="F47" s="260"/>
+      <c r="G47" s="260"/>
+      <c r="H47" s="260"/>
+      <c r="I47" s="260"/>
       <c r="J47" s="141"/>
     </row>
     <row r="48" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="138"/>
-      <c r="B48" s="249"/>
-      <c r="C48" s="249"/>
-      <c r="D48" s="249"/>
-      <c r="E48" s="249"/>
-      <c r="F48" s="249"/>
-      <c r="G48" s="249"/>
-      <c r="H48" s="249"/>
-      <c r="I48" s="249"/>
+      <c r="B48" s="260"/>
+      <c r="C48" s="260"/>
+      <c r="D48" s="260"/>
+      <c r="E48" s="260"/>
+      <c r="F48" s="260"/>
+      <c r="G48" s="260"/>
+      <c r="H48" s="260"/>
+      <c r="I48" s="260"/>
       <c r="J48" s="141"/>
     </row>
     <row r="49" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="138"/>
-      <c r="B49" s="249"/>
-      <c r="C49" s="249"/>
-      <c r="D49" s="249"/>
-      <c r="E49" s="249"/>
-      <c r="F49" s="249"/>
-      <c r="G49" s="249"/>
-      <c r="H49" s="249"/>
-      <c r="I49" s="249"/>
+      <c r="B49" s="260"/>
+      <c r="C49" s="260"/>
+      <c r="D49" s="260"/>
+      <c r="E49" s="260"/>
+      <c r="F49" s="260"/>
+      <c r="G49" s="260"/>
+      <c r="H49" s="260"/>
+      <c r="I49" s="260"/>
       <c r="J49" s="141"/>
     </row>
     <row r="50" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="138"/>
-      <c r="B50" s="249"/>
-      <c r="C50" s="249"/>
-      <c r="D50" s="249"/>
-      <c r="E50" s="249"/>
-      <c r="F50" s="249"/>
-      <c r="G50" s="249"/>
-      <c r="H50" s="249"/>
-      <c r="I50" s="249"/>
+      <c r="B50" s="260"/>
+      <c r="C50" s="260"/>
+      <c r="D50" s="260"/>
+      <c r="E50" s="260"/>
+      <c r="F50" s="260"/>
+      <c r="G50" s="260"/>
+      <c r="H50" s="260"/>
+      <c r="I50" s="260"/>
       <c r="J50" s="141"/>
     </row>
     <row r="51" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="138"/>
-      <c r="B51" s="249"/>
-      <c r="C51" s="249"/>
-      <c r="D51" s="249"/>
-      <c r="E51" s="249"/>
-      <c r="F51" s="249"/>
-      <c r="G51" s="249"/>
-      <c r="H51" s="249"/>
-      <c r="I51" s="249"/>
+      <c r="B51" s="260"/>
+      <c r="C51" s="260"/>
+      <c r="D51" s="260"/>
+      <c r="E51" s="260"/>
+      <c r="F51" s="260"/>
+      <c r="G51" s="260"/>
+      <c r="H51" s="260"/>
+      <c r="I51" s="260"/>
       <c r="J51" s="141"/>
     </row>
     <row r="52" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="138"/>
-      <c r="B52" s="249"/>
-      <c r="C52" s="249"/>
-      <c r="D52" s="249"/>
-      <c r="E52" s="249"/>
-      <c r="F52" s="249"/>
-      <c r="G52" s="249"/>
-      <c r="H52" s="249"/>
-      <c r="I52" s="249"/>
+      <c r="B52" s="260"/>
+      <c r="C52" s="260"/>
+      <c r="D52" s="260"/>
+      <c r="E52" s="260"/>
+      <c r="F52" s="260"/>
+      <c r="G52" s="260"/>
+      <c r="H52" s="260"/>
+      <c r="I52" s="260"/>
       <c r="J52" s="141"/>
     </row>
     <row r="53" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="138"/>
-      <c r="B53" s="249"/>
-      <c r="C53" s="249"/>
-      <c r="D53" s="249"/>
-      <c r="E53" s="249"/>
-      <c r="F53" s="249"/>
-      <c r="G53" s="249"/>
-      <c r="H53" s="249"/>
-      <c r="I53" s="249"/>
+      <c r="B53" s="260"/>
+      <c r="C53" s="260"/>
+      <c r="D53" s="260"/>
+      <c r="E53" s="260"/>
+      <c r="F53" s="260"/>
+      <c r="G53" s="260"/>
+      <c r="H53" s="260"/>
+      <c r="I53" s="260"/>
       <c r="J53" s="141"/>
     </row>
     <row r="54" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="138"/>
-      <c r="B54" s="249"/>
-      <c r="C54" s="249"/>
-      <c r="D54" s="249"/>
-      <c r="E54" s="249"/>
-      <c r="F54" s="249"/>
-      <c r="G54" s="249"/>
-      <c r="H54" s="249"/>
-      <c r="I54" s="249"/>
+      <c r="B54" s="260"/>
+      <c r="C54" s="260"/>
+      <c r="D54" s="260"/>
+      <c r="E54" s="260"/>
+      <c r="F54" s="260"/>
+      <c r="G54" s="260"/>
+      <c r="H54" s="260"/>
+      <c r="I54" s="260"/>
       <c r="J54" s="141"/>
     </row>
     <row r="55" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="138"/>
-      <c r="B55" s="249"/>
-      <c r="C55" s="249"/>
-      <c r="D55" s="249"/>
-      <c r="E55" s="249"/>
-      <c r="F55" s="249"/>
-      <c r="G55" s="249"/>
-      <c r="H55" s="249"/>
-      <c r="I55" s="249"/>
+      <c r="B55" s="260"/>
+      <c r="C55" s="260"/>
+      <c r="D55" s="260"/>
+      <c r="E55" s="260"/>
+      <c r="F55" s="260"/>
+      <c r="G55" s="260"/>
+      <c r="H55" s="260"/>
+      <c r="I55" s="260"/>
       <c r="J55" s="141"/>
     </row>
     <row r="56" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="138"/>
-      <c r="B56" s="249"/>
-      <c r="C56" s="249"/>
-      <c r="D56" s="249"/>
-      <c r="E56" s="249"/>
-      <c r="F56" s="249"/>
-      <c r="G56" s="249"/>
-      <c r="H56" s="249"/>
-      <c r="I56" s="249"/>
+      <c r="B56" s="260"/>
+      <c r="C56" s="260"/>
+      <c r="D56" s="260"/>
+      <c r="E56" s="260"/>
+      <c r="F56" s="260"/>
+      <c r="G56" s="260"/>
+      <c r="H56" s="260"/>
+      <c r="I56" s="260"/>
       <c r="J56" s="141"/>
     </row>
     <row r="57" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4922,218 +4925,218 @@
     </row>
     <row r="62" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="138"/>
-      <c r="B62" s="249"/>
-      <c r="C62" s="249"/>
-      <c r="D62" s="249"/>
-      <c r="E62" s="249"/>
-      <c r="F62" s="249"/>
-      <c r="G62" s="249"/>
-      <c r="H62" s="249"/>
-      <c r="I62" s="249"/>
+      <c r="B62" s="260"/>
+      <c r="C62" s="260"/>
+      <c r="D62" s="260"/>
+      <c r="E62" s="260"/>
+      <c r="F62" s="260"/>
+      <c r="G62" s="260"/>
+      <c r="H62" s="260"/>
+      <c r="I62" s="260"/>
       <c r="J62" s="141"/>
     </row>
     <row r="63" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="138"/>
-      <c r="B63" s="249"/>
-      <c r="C63" s="249"/>
-      <c r="D63" s="249"/>
-      <c r="E63" s="249"/>
-      <c r="F63" s="249"/>
-      <c r="G63" s="249"/>
-      <c r="H63" s="249"/>
-      <c r="I63" s="249"/>
+      <c r="B63" s="260"/>
+      <c r="C63" s="260"/>
+      <c r="D63" s="260"/>
+      <c r="E63" s="260"/>
+      <c r="F63" s="260"/>
+      <c r="G63" s="260"/>
+      <c r="H63" s="260"/>
+      <c r="I63" s="260"/>
       <c r="J63" s="141"/>
     </row>
     <row r="64" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="138"/>
-      <c r="B64" s="249"/>
-      <c r="C64" s="249"/>
-      <c r="D64" s="249"/>
-      <c r="E64" s="249"/>
-      <c r="F64" s="249"/>
-      <c r="G64" s="249"/>
-      <c r="H64" s="249"/>
-      <c r="I64" s="249"/>
+      <c r="B64" s="260"/>
+      <c r="C64" s="260"/>
+      <c r="D64" s="260"/>
+      <c r="E64" s="260"/>
+      <c r="F64" s="260"/>
+      <c r="G64" s="260"/>
+      <c r="H64" s="260"/>
+      <c r="I64" s="260"/>
       <c r="J64" s="141"/>
     </row>
     <row r="65" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="138"/>
-      <c r="B65" s="249"/>
-      <c r="C65" s="249"/>
-      <c r="D65" s="249"/>
-      <c r="E65" s="249"/>
-      <c r="F65" s="249"/>
-      <c r="G65" s="249"/>
-      <c r="H65" s="249"/>
-      <c r="I65" s="249"/>
+      <c r="B65" s="260"/>
+      <c r="C65" s="260"/>
+      <c r="D65" s="260"/>
+      <c r="E65" s="260"/>
+      <c r="F65" s="260"/>
+      <c r="G65" s="260"/>
+      <c r="H65" s="260"/>
+      <c r="I65" s="260"/>
       <c r="J65" s="141"/>
     </row>
     <row r="66" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="138"/>
-      <c r="B66" s="249"/>
-      <c r="C66" s="249"/>
-      <c r="D66" s="249"/>
-      <c r="E66" s="249"/>
-      <c r="F66" s="249"/>
-      <c r="G66" s="249"/>
-      <c r="H66" s="249"/>
-      <c r="I66" s="249"/>
+      <c r="B66" s="260"/>
+      <c r="C66" s="260"/>
+      <c r="D66" s="260"/>
+      <c r="E66" s="260"/>
+      <c r="F66" s="260"/>
+      <c r="G66" s="260"/>
+      <c r="H66" s="260"/>
+      <c r="I66" s="260"/>
       <c r="J66" s="141"/>
     </row>
     <row r="67" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="138"/>
-      <c r="B67" s="249"/>
-      <c r="C67" s="249"/>
-      <c r="D67" s="249"/>
-      <c r="E67" s="249"/>
-      <c r="F67" s="249"/>
-      <c r="G67" s="249"/>
-      <c r="H67" s="249"/>
-      <c r="I67" s="249"/>
+      <c r="B67" s="260"/>
+      <c r="C67" s="260"/>
+      <c r="D67" s="260"/>
+      <c r="E67" s="260"/>
+      <c r="F67" s="260"/>
+      <c r="G67" s="260"/>
+      <c r="H67" s="260"/>
+      <c r="I67" s="260"/>
       <c r="J67" s="141"/>
     </row>
     <row r="68" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="138"/>
-      <c r="B68" s="249"/>
-      <c r="C68" s="249"/>
-      <c r="D68" s="249"/>
-      <c r="E68" s="249"/>
-      <c r="F68" s="249"/>
-      <c r="G68" s="249"/>
-      <c r="H68" s="249"/>
-      <c r="I68" s="249"/>
+      <c r="B68" s="260"/>
+      <c r="C68" s="260"/>
+      <c r="D68" s="260"/>
+      <c r="E68" s="260"/>
+      <c r="F68" s="260"/>
+      <c r="G68" s="260"/>
+      <c r="H68" s="260"/>
+      <c r="I68" s="260"/>
       <c r="J68" s="141"/>
     </row>
     <row r="69" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="138"/>
-      <c r="B69" s="249"/>
-      <c r="C69" s="249"/>
-      <c r="D69" s="249"/>
-      <c r="E69" s="249"/>
-      <c r="F69" s="249"/>
-      <c r="G69" s="249"/>
-      <c r="H69" s="249"/>
-      <c r="I69" s="249"/>
+      <c r="B69" s="260"/>
+      <c r="C69" s="260"/>
+      <c r="D69" s="260"/>
+      <c r="E69" s="260"/>
+      <c r="F69" s="260"/>
+      <c r="G69" s="260"/>
+      <c r="H69" s="260"/>
+      <c r="I69" s="260"/>
       <c r="J69" s="141"/>
     </row>
     <row r="70" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="138"/>
-      <c r="B70" s="249"/>
-      <c r="C70" s="249"/>
-      <c r="D70" s="249"/>
-      <c r="E70" s="249"/>
-      <c r="F70" s="249"/>
-      <c r="G70" s="249"/>
-      <c r="H70" s="249"/>
-      <c r="I70" s="249"/>
+      <c r="B70" s="260"/>
+      <c r="C70" s="260"/>
+      <c r="D70" s="260"/>
+      <c r="E70" s="260"/>
+      <c r="F70" s="260"/>
+      <c r="G70" s="260"/>
+      <c r="H70" s="260"/>
+      <c r="I70" s="260"/>
       <c r="J70" s="141"/>
     </row>
     <row r="71" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="138"/>
-      <c r="B71" s="249"/>
-      <c r="C71" s="249"/>
-      <c r="D71" s="249"/>
-      <c r="E71" s="249"/>
-      <c r="F71" s="249"/>
-      <c r="G71" s="249"/>
-      <c r="H71" s="249"/>
-      <c r="I71" s="249"/>
+      <c r="B71" s="260"/>
+      <c r="C71" s="260"/>
+      <c r="D71" s="260"/>
+      <c r="E71" s="260"/>
+      <c r="F71" s="260"/>
+      <c r="G71" s="260"/>
+      <c r="H71" s="260"/>
+      <c r="I71" s="260"/>
       <c r="J71" s="141"/>
     </row>
     <row r="72" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="138"/>
-      <c r="B72" s="249"/>
-      <c r="C72" s="249"/>
-      <c r="D72" s="249"/>
-      <c r="E72" s="249"/>
-      <c r="F72" s="249"/>
-      <c r="G72" s="249"/>
-      <c r="H72" s="249"/>
-      <c r="I72" s="249"/>
+      <c r="B72" s="260"/>
+      <c r="C72" s="260"/>
+      <c r="D72" s="260"/>
+      <c r="E72" s="260"/>
+      <c r="F72" s="260"/>
+      <c r="G72" s="260"/>
+      <c r="H72" s="260"/>
+      <c r="I72" s="260"/>
       <c r="J72" s="141"/>
     </row>
     <row r="73" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="138"/>
-      <c r="B73" s="249"/>
-      <c r="C73" s="249"/>
-      <c r="D73" s="249"/>
-      <c r="E73" s="249"/>
-      <c r="F73" s="249"/>
-      <c r="G73" s="249"/>
-      <c r="H73" s="249"/>
-      <c r="I73" s="249"/>
+      <c r="B73" s="260"/>
+      <c r="C73" s="260"/>
+      <c r="D73" s="260"/>
+      <c r="E73" s="260"/>
+      <c r="F73" s="260"/>
+      <c r="G73" s="260"/>
+      <c r="H73" s="260"/>
+      <c r="I73" s="260"/>
       <c r="J73" s="141"/>
     </row>
     <row r="74" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="138"/>
-      <c r="B74" s="249"/>
-      <c r="C74" s="249"/>
-      <c r="D74" s="249"/>
-      <c r="E74" s="249"/>
-      <c r="F74" s="249"/>
-      <c r="G74" s="249"/>
-      <c r="H74" s="249"/>
-      <c r="I74" s="249"/>
+      <c r="B74" s="260"/>
+      <c r="C74" s="260"/>
+      <c r="D74" s="260"/>
+      <c r="E74" s="260"/>
+      <c r="F74" s="260"/>
+      <c r="G74" s="260"/>
+      <c r="H74" s="260"/>
+      <c r="I74" s="260"/>
       <c r="J74" s="141"/>
     </row>
     <row r="75" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="138"/>
-      <c r="B75" s="249"/>
-      <c r="C75" s="249"/>
-      <c r="D75" s="249"/>
-      <c r="E75" s="249"/>
-      <c r="F75" s="249"/>
-      <c r="G75" s="249"/>
-      <c r="H75" s="249"/>
-      <c r="I75" s="249"/>
+      <c r="B75" s="260"/>
+      <c r="C75" s="260"/>
+      <c r="D75" s="260"/>
+      <c r="E75" s="260"/>
+      <c r="F75" s="260"/>
+      <c r="G75" s="260"/>
+      <c r="H75" s="260"/>
+      <c r="I75" s="260"/>
       <c r="J75" s="141"/>
     </row>
     <row r="76" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="138"/>
-      <c r="B76" s="249"/>
-      <c r="C76" s="249"/>
-      <c r="D76" s="249"/>
-      <c r="E76" s="249"/>
-      <c r="F76" s="249"/>
-      <c r="G76" s="249"/>
-      <c r="H76" s="249"/>
-      <c r="I76" s="249"/>
+      <c r="B76" s="260"/>
+      <c r="C76" s="260"/>
+      <c r="D76" s="260"/>
+      <c r="E76" s="260"/>
+      <c r="F76" s="260"/>
+      <c r="G76" s="260"/>
+      <c r="H76" s="260"/>
+      <c r="I76" s="260"/>
       <c r="J76" s="141"/>
     </row>
     <row r="77" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="138"/>
-      <c r="B77" s="249"/>
-      <c r="C77" s="249"/>
-      <c r="D77" s="249"/>
-      <c r="E77" s="249"/>
-      <c r="F77" s="249"/>
-      <c r="G77" s="249"/>
-      <c r="H77" s="249"/>
-      <c r="I77" s="249"/>
+      <c r="B77" s="260"/>
+      <c r="C77" s="260"/>
+      <c r="D77" s="260"/>
+      <c r="E77" s="260"/>
+      <c r="F77" s="260"/>
+      <c r="G77" s="260"/>
+      <c r="H77" s="260"/>
+      <c r="I77" s="260"/>
       <c r="J77" s="141"/>
     </row>
     <row r="78" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="138"/>
-      <c r="B78" s="249"/>
-      <c r="C78" s="249"/>
-      <c r="D78" s="249"/>
-      <c r="E78" s="249"/>
-      <c r="F78" s="249"/>
-      <c r="G78" s="249"/>
-      <c r="H78" s="249"/>
-      <c r="I78" s="249"/>
+      <c r="B78" s="260"/>
+      <c r="C78" s="260"/>
+      <c r="D78" s="260"/>
+      <c r="E78" s="260"/>
+      <c r="F78" s="260"/>
+      <c r="G78" s="260"/>
+      <c r="H78" s="260"/>
+      <c r="I78" s="260"/>
       <c r="J78" s="141"/>
     </row>
     <row r="79" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="138"/>
-      <c r="B79" s="249"/>
-      <c r="C79" s="249"/>
-      <c r="D79" s="249"/>
-      <c r="E79" s="249"/>
-      <c r="F79" s="249"/>
-      <c r="G79" s="249"/>
-      <c r="H79" s="249"/>
-      <c r="I79" s="249"/>
+      <c r="B79" s="260"/>
+      <c r="C79" s="260"/>
+      <c r="D79" s="260"/>
+      <c r="E79" s="260"/>
+      <c r="F79" s="260"/>
+      <c r="G79" s="260"/>
+      <c r="H79" s="260"/>
+      <c r="I79" s="260"/>
       <c r="J79" s="141"/>
     </row>
     <row r="80" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5218,206 +5221,206 @@
     </row>
     <row r="86" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="138"/>
-      <c r="B86" s="249"/>
-      <c r="C86" s="249"/>
-      <c r="D86" s="249"/>
-      <c r="E86" s="249"/>
-      <c r="F86" s="249"/>
-      <c r="G86" s="249"/>
-      <c r="H86" s="249"/>
-      <c r="I86" s="249"/>
+      <c r="B86" s="260"/>
+      <c r="C86" s="260"/>
+      <c r="D86" s="260"/>
+      <c r="E86" s="260"/>
+      <c r="F86" s="260"/>
+      <c r="G86" s="260"/>
+      <c r="H86" s="260"/>
+      <c r="I86" s="260"/>
       <c r="J86" s="141"/>
     </row>
     <row r="87" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="138"/>
-      <c r="B87" s="249"/>
-      <c r="C87" s="249"/>
-      <c r="D87" s="249"/>
-      <c r="E87" s="249"/>
-      <c r="F87" s="249"/>
-      <c r="G87" s="249"/>
-      <c r="H87" s="249"/>
-      <c r="I87" s="249"/>
+      <c r="B87" s="260"/>
+      <c r="C87" s="260"/>
+      <c r="D87" s="260"/>
+      <c r="E87" s="260"/>
+      <c r="F87" s="260"/>
+      <c r="G87" s="260"/>
+      <c r="H87" s="260"/>
+      <c r="I87" s="260"/>
       <c r="J87" s="141"/>
     </row>
     <row r="88" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="138"/>
-      <c r="B88" s="249"/>
-      <c r="C88" s="249"/>
-      <c r="D88" s="249"/>
-      <c r="E88" s="249"/>
-      <c r="F88" s="249"/>
-      <c r="G88" s="249"/>
-      <c r="H88" s="249"/>
-      <c r="I88" s="249"/>
+      <c r="B88" s="260"/>
+      <c r="C88" s="260"/>
+      <c r="D88" s="260"/>
+      <c r="E88" s="260"/>
+      <c r="F88" s="260"/>
+      <c r="G88" s="260"/>
+      <c r="H88" s="260"/>
+      <c r="I88" s="260"/>
       <c r="J88" s="141"/>
     </row>
     <row r="89" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="138"/>
-      <c r="B89" s="249"/>
-      <c r="C89" s="249"/>
-      <c r="D89" s="249"/>
-      <c r="E89" s="249"/>
-      <c r="F89" s="249"/>
-      <c r="G89" s="249"/>
-      <c r="H89" s="249"/>
-      <c r="I89" s="249"/>
+      <c r="B89" s="260"/>
+      <c r="C89" s="260"/>
+      <c r="D89" s="260"/>
+      <c r="E89" s="260"/>
+      <c r="F89" s="260"/>
+      <c r="G89" s="260"/>
+      <c r="H89" s="260"/>
+      <c r="I89" s="260"/>
       <c r="J89" s="141"/>
     </row>
     <row r="90" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="138"/>
-      <c r="B90" s="249"/>
-      <c r="C90" s="249"/>
-      <c r="D90" s="249"/>
-      <c r="E90" s="249"/>
-      <c r="F90" s="249"/>
-      <c r="G90" s="249"/>
-      <c r="H90" s="249"/>
-      <c r="I90" s="249"/>
+      <c r="B90" s="260"/>
+      <c r="C90" s="260"/>
+      <c r="D90" s="260"/>
+      <c r="E90" s="260"/>
+      <c r="F90" s="260"/>
+      <c r="G90" s="260"/>
+      <c r="H90" s="260"/>
+      <c r="I90" s="260"/>
       <c r="J90" s="141"/>
     </row>
     <row r="91" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="138"/>
-      <c r="B91" s="249"/>
-      <c r="C91" s="249"/>
-      <c r="D91" s="249"/>
-      <c r="E91" s="249"/>
-      <c r="F91" s="249"/>
-      <c r="G91" s="249"/>
-      <c r="H91" s="249"/>
-      <c r="I91" s="249"/>
+      <c r="B91" s="260"/>
+      <c r="C91" s="260"/>
+      <c r="D91" s="260"/>
+      <c r="E91" s="260"/>
+      <c r="F91" s="260"/>
+      <c r="G91" s="260"/>
+      <c r="H91" s="260"/>
+      <c r="I91" s="260"/>
       <c r="J91" s="141"/>
     </row>
     <row r="92" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="138"/>
-      <c r="B92" s="249"/>
-      <c r="C92" s="249"/>
-      <c r="D92" s="249"/>
-      <c r="E92" s="249"/>
-      <c r="F92" s="249"/>
-      <c r="G92" s="249"/>
-      <c r="H92" s="249"/>
-      <c r="I92" s="249"/>
+      <c r="B92" s="260"/>
+      <c r="C92" s="260"/>
+      <c r="D92" s="260"/>
+      <c r="E92" s="260"/>
+      <c r="F92" s="260"/>
+      <c r="G92" s="260"/>
+      <c r="H92" s="260"/>
+      <c r="I92" s="260"/>
       <c r="J92" s="141"/>
     </row>
     <row r="93" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="138"/>
-      <c r="B93" s="249"/>
-      <c r="C93" s="249"/>
-      <c r="D93" s="249"/>
-      <c r="E93" s="249"/>
-      <c r="F93" s="249"/>
-      <c r="G93" s="249"/>
-      <c r="H93" s="249"/>
-      <c r="I93" s="249"/>
+      <c r="B93" s="260"/>
+      <c r="C93" s="260"/>
+      <c r="D93" s="260"/>
+      <c r="E93" s="260"/>
+      <c r="F93" s="260"/>
+      <c r="G93" s="260"/>
+      <c r="H93" s="260"/>
+      <c r="I93" s="260"/>
       <c r="J93" s="141"/>
     </row>
     <row r="94" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="138"/>
-      <c r="B94" s="249"/>
-      <c r="C94" s="249"/>
-      <c r="D94" s="249"/>
-      <c r="E94" s="249"/>
-      <c r="F94" s="249"/>
-      <c r="G94" s="249"/>
-      <c r="H94" s="249"/>
-      <c r="I94" s="249"/>
+      <c r="B94" s="260"/>
+      <c r="C94" s="260"/>
+      <c r="D94" s="260"/>
+      <c r="E94" s="260"/>
+      <c r="F94" s="260"/>
+      <c r="G94" s="260"/>
+      <c r="H94" s="260"/>
+      <c r="I94" s="260"/>
       <c r="J94" s="141"/>
     </row>
     <row r="95" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="138"/>
-      <c r="B95" s="249"/>
-      <c r="C95" s="249"/>
-      <c r="D95" s="249"/>
-      <c r="E95" s="249"/>
-      <c r="F95" s="249"/>
-      <c r="G95" s="249"/>
-      <c r="H95" s="249"/>
-      <c r="I95" s="249"/>
+      <c r="B95" s="260"/>
+      <c r="C95" s="260"/>
+      <c r="D95" s="260"/>
+      <c r="E95" s="260"/>
+      <c r="F95" s="260"/>
+      <c r="G95" s="260"/>
+      <c r="H95" s="260"/>
+      <c r="I95" s="260"/>
       <c r="J95" s="141"/>
     </row>
     <row r="96" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="138"/>
-      <c r="B96" s="249"/>
-      <c r="C96" s="249"/>
-      <c r="D96" s="249"/>
-      <c r="E96" s="249"/>
-      <c r="F96" s="249"/>
-      <c r="G96" s="249"/>
-      <c r="H96" s="249"/>
-      <c r="I96" s="249"/>
+      <c r="B96" s="260"/>
+      <c r="C96" s="260"/>
+      <c r="D96" s="260"/>
+      <c r="E96" s="260"/>
+      <c r="F96" s="260"/>
+      <c r="G96" s="260"/>
+      <c r="H96" s="260"/>
+      <c r="I96" s="260"/>
       <c r="J96" s="141"/>
     </row>
     <row r="97" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="138"/>
-      <c r="B97" s="249"/>
-      <c r="C97" s="249"/>
-      <c r="D97" s="249"/>
-      <c r="E97" s="249"/>
-      <c r="F97" s="249"/>
-      <c r="G97" s="249"/>
-      <c r="H97" s="249"/>
-      <c r="I97" s="249"/>
+      <c r="B97" s="260"/>
+      <c r="C97" s="260"/>
+      <c r="D97" s="260"/>
+      <c r="E97" s="260"/>
+      <c r="F97" s="260"/>
+      <c r="G97" s="260"/>
+      <c r="H97" s="260"/>
+      <c r="I97" s="260"/>
       <c r="J97" s="141"/>
     </row>
     <row r="98" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="138"/>
-      <c r="B98" s="249"/>
-      <c r="C98" s="249"/>
-      <c r="D98" s="249"/>
-      <c r="E98" s="249"/>
-      <c r="F98" s="249"/>
-      <c r="G98" s="249"/>
-      <c r="H98" s="249"/>
-      <c r="I98" s="249"/>
+      <c r="B98" s="260"/>
+      <c r="C98" s="260"/>
+      <c r="D98" s="260"/>
+      <c r="E98" s="260"/>
+      <c r="F98" s="260"/>
+      <c r="G98" s="260"/>
+      <c r="H98" s="260"/>
+      <c r="I98" s="260"/>
       <c r="J98" s="141"/>
     </row>
     <row r="99" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="138"/>
-      <c r="B99" s="249"/>
-      <c r="C99" s="249"/>
-      <c r="D99" s="249"/>
-      <c r="E99" s="249"/>
-      <c r="F99" s="249"/>
-      <c r="G99" s="249"/>
-      <c r="H99" s="249"/>
-      <c r="I99" s="249"/>
+      <c r="B99" s="260"/>
+      <c r="C99" s="260"/>
+      <c r="D99" s="260"/>
+      <c r="E99" s="260"/>
+      <c r="F99" s="260"/>
+      <c r="G99" s="260"/>
+      <c r="H99" s="260"/>
+      <c r="I99" s="260"/>
       <c r="J99" s="141"/>
     </row>
     <row r="100" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="138"/>
-      <c r="B100" s="249"/>
-      <c r="C100" s="249"/>
-      <c r="D100" s="249"/>
-      <c r="E100" s="249"/>
-      <c r="F100" s="249"/>
-      <c r="G100" s="249"/>
-      <c r="H100" s="249"/>
-      <c r="I100" s="249"/>
+      <c r="B100" s="260"/>
+      <c r="C100" s="260"/>
+      <c r="D100" s="260"/>
+      <c r="E100" s="260"/>
+      <c r="F100" s="260"/>
+      <c r="G100" s="260"/>
+      <c r="H100" s="260"/>
+      <c r="I100" s="260"/>
       <c r="J100" s="141"/>
     </row>
     <row r="101" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="138"/>
-      <c r="B101" s="249"/>
-      <c r="C101" s="249"/>
-      <c r="D101" s="249"/>
-      <c r="E101" s="249"/>
-      <c r="F101" s="249"/>
-      <c r="G101" s="249"/>
-      <c r="H101" s="249"/>
-      <c r="I101" s="249"/>
+      <c r="B101" s="260"/>
+      <c r="C101" s="260"/>
+      <c r="D101" s="260"/>
+      <c r="E101" s="260"/>
+      <c r="F101" s="260"/>
+      <c r="G101" s="260"/>
+      <c r="H101" s="260"/>
+      <c r="I101" s="260"/>
       <c r="J101" s="141"/>
     </row>
     <row r="102" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="138"/>
-      <c r="B102" s="249"/>
-      <c r="C102" s="249"/>
-      <c r="D102" s="249"/>
-      <c r="E102" s="249"/>
-      <c r="F102" s="249"/>
-      <c r="G102" s="249"/>
-      <c r="H102" s="249"/>
-      <c r="I102" s="249"/>
+      <c r="B102" s="260"/>
+      <c r="C102" s="260"/>
+      <c r="D102" s="260"/>
+      <c r="E102" s="260"/>
+      <c r="F102" s="260"/>
+      <c r="G102" s="260"/>
+      <c r="H102" s="260"/>
+      <c r="I102" s="260"/>
       <c r="J102" s="141"/>
     </row>
     <row r="103" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5488,158 +5491,158 @@
     </row>
     <row r="108" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="138"/>
-      <c r="B108" s="249"/>
-      <c r="C108" s="249"/>
-      <c r="D108" s="249"/>
-      <c r="E108" s="249"/>
-      <c r="F108" s="249"/>
-      <c r="G108" s="249"/>
-      <c r="H108" s="249"/>
-      <c r="I108" s="249"/>
+      <c r="B108" s="260"/>
+      <c r="C108" s="260"/>
+      <c r="D108" s="260"/>
+      <c r="E108" s="260"/>
+      <c r="F108" s="260"/>
+      <c r="G108" s="260"/>
+      <c r="H108" s="260"/>
+      <c r="I108" s="260"/>
       <c r="J108" s="141"/>
     </row>
     <row r="109" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="138"/>
-      <c r="B109" s="249"/>
-      <c r="C109" s="249"/>
-      <c r="D109" s="249"/>
-      <c r="E109" s="249"/>
-      <c r="F109" s="249"/>
-      <c r="G109" s="249"/>
-      <c r="H109" s="249"/>
-      <c r="I109" s="249"/>
+      <c r="B109" s="260"/>
+      <c r="C109" s="260"/>
+      <c r="D109" s="260"/>
+      <c r="E109" s="260"/>
+      <c r="F109" s="260"/>
+      <c r="G109" s="260"/>
+      <c r="H109" s="260"/>
+      <c r="I109" s="260"/>
       <c r="J109" s="141"/>
     </row>
     <row r="110" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="138"/>
-      <c r="B110" s="249"/>
-      <c r="C110" s="249"/>
-      <c r="D110" s="249"/>
-      <c r="E110" s="249"/>
-      <c r="F110" s="249"/>
-      <c r="G110" s="249"/>
-      <c r="H110" s="249"/>
-      <c r="I110" s="249"/>
+      <c r="B110" s="260"/>
+      <c r="C110" s="260"/>
+      <c r="D110" s="260"/>
+      <c r="E110" s="260"/>
+      <c r="F110" s="260"/>
+      <c r="G110" s="260"/>
+      <c r="H110" s="260"/>
+      <c r="I110" s="260"/>
       <c r="J110" s="141"/>
     </row>
     <row r="111" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="138"/>
-      <c r="B111" s="249"/>
-      <c r="C111" s="249"/>
-      <c r="D111" s="249"/>
-      <c r="E111" s="249"/>
-      <c r="F111" s="249"/>
-      <c r="G111" s="249"/>
-      <c r="H111" s="249"/>
-      <c r="I111" s="249"/>
+      <c r="B111" s="260"/>
+      <c r="C111" s="260"/>
+      <c r="D111" s="260"/>
+      <c r="E111" s="260"/>
+      <c r="F111" s="260"/>
+      <c r="G111" s="260"/>
+      <c r="H111" s="260"/>
+      <c r="I111" s="260"/>
       <c r="J111" s="141"/>
     </row>
     <row r="112" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="138"/>
-      <c r="B112" s="249"/>
-      <c r="C112" s="249"/>
-      <c r="D112" s="249"/>
-      <c r="E112" s="249"/>
-      <c r="F112" s="249"/>
-      <c r="G112" s="249"/>
-      <c r="H112" s="249"/>
-      <c r="I112" s="249"/>
+      <c r="B112" s="260"/>
+      <c r="C112" s="260"/>
+      <c r="D112" s="260"/>
+      <c r="E112" s="260"/>
+      <c r="F112" s="260"/>
+      <c r="G112" s="260"/>
+      <c r="H112" s="260"/>
+      <c r="I112" s="260"/>
       <c r="J112" s="141"/>
     </row>
     <row r="113" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="138"/>
-      <c r="B113" s="249"/>
-      <c r="C113" s="249"/>
-      <c r="D113" s="249"/>
-      <c r="E113" s="249"/>
-      <c r="F113" s="249"/>
-      <c r="G113" s="249"/>
-      <c r="H113" s="249"/>
-      <c r="I113" s="249"/>
+      <c r="B113" s="260"/>
+      <c r="C113" s="260"/>
+      <c r="D113" s="260"/>
+      <c r="E113" s="260"/>
+      <c r="F113" s="260"/>
+      <c r="G113" s="260"/>
+      <c r="H113" s="260"/>
+      <c r="I113" s="260"/>
       <c r="J113" s="141"/>
     </row>
     <row r="114" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="138"/>
-      <c r="B114" s="249"/>
-      <c r="C114" s="249"/>
-      <c r="D114" s="249"/>
-      <c r="E114" s="249"/>
-      <c r="F114" s="249"/>
-      <c r="G114" s="249"/>
-      <c r="H114" s="249"/>
-      <c r="I114" s="249"/>
+      <c r="B114" s="260"/>
+      <c r="C114" s="260"/>
+      <c r="D114" s="260"/>
+      <c r="E114" s="260"/>
+      <c r="F114" s="260"/>
+      <c r="G114" s="260"/>
+      <c r="H114" s="260"/>
+      <c r="I114" s="260"/>
       <c r="J114" s="141"/>
     </row>
     <row r="115" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="138"/>
-      <c r="B115" s="249"/>
-      <c r="C115" s="249"/>
-      <c r="D115" s="249"/>
-      <c r="E115" s="249"/>
-      <c r="F115" s="249"/>
-      <c r="G115" s="249"/>
-      <c r="H115" s="249"/>
-      <c r="I115" s="249"/>
+      <c r="B115" s="260"/>
+      <c r="C115" s="260"/>
+      <c r="D115" s="260"/>
+      <c r="E115" s="260"/>
+      <c r="F115" s="260"/>
+      <c r="G115" s="260"/>
+      <c r="H115" s="260"/>
+      <c r="I115" s="260"/>
       <c r="J115" s="141"/>
     </row>
     <row r="116" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="138"/>
-      <c r="B116" s="249"/>
-      <c r="C116" s="249"/>
-      <c r="D116" s="249"/>
-      <c r="E116" s="249"/>
-      <c r="F116" s="249"/>
-      <c r="G116" s="249"/>
-      <c r="H116" s="249"/>
-      <c r="I116" s="249"/>
+      <c r="B116" s="260"/>
+      <c r="C116" s="260"/>
+      <c r="D116" s="260"/>
+      <c r="E116" s="260"/>
+      <c r="F116" s="260"/>
+      <c r="G116" s="260"/>
+      <c r="H116" s="260"/>
+      <c r="I116" s="260"/>
       <c r="J116" s="141"/>
     </row>
     <row r="117" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="138"/>
-      <c r="B117" s="249"/>
-      <c r="C117" s="249"/>
-      <c r="D117" s="249"/>
-      <c r="E117" s="249"/>
-      <c r="F117" s="249"/>
-      <c r="G117" s="249"/>
-      <c r="H117" s="249"/>
-      <c r="I117" s="249"/>
+      <c r="B117" s="260"/>
+      <c r="C117" s="260"/>
+      <c r="D117" s="260"/>
+      <c r="E117" s="260"/>
+      <c r="F117" s="260"/>
+      <c r="G117" s="260"/>
+      <c r="H117" s="260"/>
+      <c r="I117" s="260"/>
       <c r="J117" s="141"/>
     </row>
     <row r="118" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="138"/>
-      <c r="B118" s="249"/>
-      <c r="C118" s="249"/>
-      <c r="D118" s="249"/>
-      <c r="E118" s="249"/>
-      <c r="F118" s="249"/>
-      <c r="G118" s="249"/>
-      <c r="H118" s="249"/>
-      <c r="I118" s="249"/>
+      <c r="B118" s="260"/>
+      <c r="C118" s="260"/>
+      <c r="D118" s="260"/>
+      <c r="E118" s="260"/>
+      <c r="F118" s="260"/>
+      <c r="G118" s="260"/>
+      <c r="H118" s="260"/>
+      <c r="I118" s="260"/>
       <c r="J118" s="141"/>
     </row>
     <row r="119" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="138"/>
-      <c r="B119" s="249"/>
-      <c r="C119" s="249"/>
-      <c r="D119" s="249"/>
-      <c r="E119" s="249"/>
-      <c r="F119" s="249"/>
-      <c r="G119" s="249"/>
-      <c r="H119" s="249"/>
-      <c r="I119" s="249"/>
+      <c r="B119" s="260"/>
+      <c r="C119" s="260"/>
+      <c r="D119" s="260"/>
+      <c r="E119" s="260"/>
+      <c r="F119" s="260"/>
+      <c r="G119" s="260"/>
+      <c r="H119" s="260"/>
+      <c r="I119" s="260"/>
       <c r="J119" s="141"/>
     </row>
     <row r="120" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="138"/>
-      <c r="B120" s="249"/>
-      <c r="C120" s="249"/>
-      <c r="D120" s="249"/>
-      <c r="E120" s="249"/>
-      <c r="F120" s="249"/>
-      <c r="G120" s="249"/>
-      <c r="H120" s="249"/>
-      <c r="I120" s="249"/>
+      <c r="B120" s="260"/>
+      <c r="C120" s="260"/>
+      <c r="D120" s="260"/>
+      <c r="E120" s="260"/>
+      <c r="F120" s="260"/>
+      <c r="G120" s="260"/>
+      <c r="H120" s="260"/>
+      <c r="I120" s="260"/>
       <c r="J120" s="141"/>
     </row>
     <row r="121" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5674,11 +5677,11 @@
       <c r="E123" s="149"/>
       <c r="F123" s="149"/>
       <c r="G123" s="167"/>
-      <c r="H123" s="269" t="s">
+      <c r="H123" s="261" t="s">
         <v>97</v>
       </c>
-      <c r="I123" s="269"/>
-      <c r="J123" s="270"/>
+      <c r="I123" s="261"/>
+      <c r="J123" s="262"/>
     </row>
     <row r="124" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="138"/>
@@ -5688,11 +5691,11 @@
       <c r="E124" s="15"/>
       <c r="F124" s="15"/>
       <c r="G124" s="15"/>
-      <c r="H124" s="263" t="s">
+      <c r="H124" s="258" t="s">
         <v>13</v>
       </c>
-      <c r="I124" s="263"/>
-      <c r="J124" s="264"/>
+      <c r="I124" s="258"/>
+      <c r="J124" s="267"/>
     </row>
     <row r="125" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="138"/>
@@ -5750,9 +5753,9 @@
       <c r="E129" s="15"/>
       <c r="F129" s="15"/>
       <c r="G129" s="15"/>
-      <c r="H129" s="265"/>
-      <c r="I129" s="265"/>
-      <c r="J129" s="266"/>
+      <c r="H129" s="259"/>
+      <c r="I129" s="259"/>
+      <c r="J129" s="268"/>
     </row>
     <row r="130" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="138"/>
@@ -5762,9 +5765,9 @@
       <c r="E130" s="15"/>
       <c r="F130" s="15"/>
       <c r="G130" s="15"/>
-      <c r="H130" s="263"/>
-      <c r="I130" s="263"/>
-      <c r="J130" s="264"/>
+      <c r="H130" s="258"/>
+      <c r="I130" s="258"/>
+      <c r="J130" s="267"/>
     </row>
     <row r="131" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="138"/>
@@ -5782,13 +5785,13 @@
       <c r="A132" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="B132" s="179" t="s">
+      <c r="B132" s="178" t="s">
         <v>93</v>
       </c>
-      <c r="C132" s="179"/>
-      <c r="D132" s="179"/>
-      <c r="E132" s="179"/>
-      <c r="F132" s="179"/>
+      <c r="C132" s="178"/>
+      <c r="D132" s="178"/>
+      <c r="E132" s="178"/>
+      <c r="F132" s="178"/>
       <c r="G132" s="15"/>
       <c r="H132" s="15"/>
       <c r="I132" s="15"/>
@@ -5796,13 +5799,13 @@
     </row>
     <row r="133" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="138"/>
-      <c r="B133" s="263" t="s">
+      <c r="B133" s="258" t="s">
         <v>94</v>
       </c>
-      <c r="C133" s="263"/>
-      <c r="D133" s="263"/>
-      <c r="E133" s="263"/>
-      <c r="F133" s="263"/>
+      <c r="C133" s="258"/>
+      <c r="D133" s="258"/>
+      <c r="E133" s="258"/>
+      <c r="F133" s="258"/>
       <c r="G133" s="15"/>
       <c r="H133" s="15"/>
       <c r="I133" s="15"/>
@@ -5810,13 +5813,13 @@
     </row>
     <row r="134" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="138"/>
-      <c r="B134" s="263" t="s">
+      <c r="B134" s="258" t="s">
         <v>95</v>
       </c>
-      <c r="C134" s="263"/>
-      <c r="D134" s="263"/>
-      <c r="E134" s="263"/>
-      <c r="F134" s="263"/>
+      <c r="C134" s="258"/>
+      <c r="D134" s="258"/>
+      <c r="E134" s="258"/>
+      <c r="F134" s="258"/>
       <c r="G134" s="15"/>
       <c r="H134" s="15"/>
       <c r="I134" s="15"/>
@@ -5872,11 +5875,11 @@
     </row>
     <row r="139" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="138"/>
-      <c r="B139" s="265"/>
-      <c r="C139" s="265"/>
-      <c r="D139" s="265"/>
-      <c r="E139" s="265"/>
-      <c r="F139" s="265"/>
+      <c r="B139" s="259"/>
+      <c r="C139" s="259"/>
+      <c r="D139" s="259"/>
+      <c r="E139" s="259"/>
+      <c r="F139" s="259"/>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
       <c r="I139" s="15"/>
@@ -5884,11 +5887,11 @@
     </row>
     <row r="140" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="138"/>
-      <c r="B140" s="263"/>
-      <c r="C140" s="263"/>
-      <c r="D140" s="263"/>
-      <c r="E140" s="263"/>
-      <c r="F140" s="263"/>
+      <c r="B140" s="258"/>
+      <c r="C140" s="258"/>
+      <c r="D140" s="258"/>
+      <c r="E140" s="258"/>
+      <c r="F140" s="258"/>
       <c r="G140" s="15"/>
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
@@ -5914,11 +5917,11 @@
       <c r="E142" s="15"/>
       <c r="F142" s="15"/>
       <c r="G142" s="152"/>
-      <c r="H142" s="263" t="s">
+      <c r="H142" s="258" t="s">
         <v>98</v>
       </c>
-      <c r="I142" s="263"/>
-      <c r="J142" s="264"/>
+      <c r="I142" s="258"/>
+      <c r="J142" s="267"/>
     </row>
     <row r="143" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="138"/>
@@ -5928,11 +5931,11 @@
       <c r="E143" s="15"/>
       <c r="F143" s="15"/>
       <c r="G143" s="15"/>
-      <c r="H143" s="263" t="s">
+      <c r="H143" s="258" t="s">
         <v>96</v>
       </c>
-      <c r="I143" s="263"/>
-      <c r="J143" s="264"/>
+      <c r="I143" s="258"/>
+      <c r="J143" s="267"/>
     </row>
     <row r="144" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="138"/>
@@ -5990,9 +5993,9 @@
       <c r="E148" s="15"/>
       <c r="F148" s="15"/>
       <c r="G148" s="15"/>
-      <c r="H148" s="265"/>
-      <c r="I148" s="265"/>
-      <c r="J148" s="266"/>
+      <c r="H148" s="259"/>
+      <c r="I148" s="259"/>
+      <c r="J148" s="268"/>
     </row>
     <row r="149" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="138"/>
@@ -6002,9 +6005,9 @@
       <c r="E149" s="15"/>
       <c r="F149" s="15"/>
       <c r="G149" s="15"/>
-      <c r="H149" s="267"/>
-      <c r="I149" s="263"/>
-      <c r="J149" s="264"/>
+      <c r="H149" s="269"/>
+      <c r="I149" s="258"/>
+      <c r="J149" s="267"/>
     </row>
     <row r="150" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="153"/>
@@ -6032,52 +6035,12 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="C32:G33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="B44:I56"/>
-    <mergeCell ref="B62:I79"/>
-    <mergeCell ref="B86:I102"/>
-    <mergeCell ref="B108:I120"/>
-    <mergeCell ref="H123:J123"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="H149:J149"/>
-    <mergeCell ref="A39:I40"/>
-    <mergeCell ref="H124:J124"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="C15:F15"/>
@@ -6091,12 +6054,52 @@
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="G20:J20"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="A39:I40"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="B44:I56"/>
+    <mergeCell ref="B62:I79"/>
+    <mergeCell ref="B86:I102"/>
+    <mergeCell ref="B108:I120"/>
+    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="C32:G33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="F34:G34"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
